--- a/biology/Zoologie/Hamster_d'Eversmann/Hamster_d'Eversmann.xlsx
+++ b/biology/Zoologie/Hamster_d'Eversmann/Hamster_d'Eversmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hamster_d%27Eversmann</t>
+          <t>Hamster_d'Eversmann</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allocricetulus eversmanni · Hamster kazakh
-Le Hamster d'Eversmann ou Hamster kazakh (Allocricetulus eversmanni)[3] est une espèce de Rongeurs de la famille des Cricétidés.
+Le Hamster d'Eversmann ou Hamster kazakh (Allocricetulus eversmanni) est une espèce de Rongeurs de la famille des Cricétidés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hamster_d%27Eversmann</t>
+          <t>Hamster_d'Eversmann</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Habitat d'origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le retrouve principalement dans les steppes du Sud de la Russie et du Nord du Kazakhstan, du fleuve Volga jusqu'à la rivière Irtych et au lac Zaysan dans l'Est du pays. On le retrouve également dans le Nord de la province de Xinjiang, dans le Nord-Ouest de la Chine[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le retrouve principalement dans les steppes du Sud de la Russie et du Nord du Kazakhstan, du fleuve Volga jusqu'à la rivière Irtych et au lac Zaysan dans l'Est du pays. On le retrouve également dans le Nord de la province de Xinjiang, dans le Nord-Ouest de la Chine.
 </t>
         </is>
       </c>
